--- a/dfs_benchmark.xlsx
+++ b/dfs_benchmark.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="BFS benchmark" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DFS benchmark" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -636,17 +636,17 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>SUCCESS</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>SUCCESS</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>SUCCESS</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>SUCCESS</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>SUCCESS</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>SUCCESS</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -726,7 +726,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>SUCCESS</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -736,12 +736,12 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>SUCCESS</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>SUCCESS</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
@@ -773,167 +773,167 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-11-04 10:30:23.984844</t>
+          <t>2022-11-04 12:06:04.348794</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2022-11-04 10:30:24.341657</t>
+          <t>2022-11-04 12:06:04.709060</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2022-11-04 10:30:24.816499</t>
+          <t>2022-11-04 12:06:05.151886</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2022-11-04 10:30:25.204064</t>
+          <t>2022-11-04 12:06:05.521276</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2022-11-04 10:30:25.574812</t>
+          <t>2022-11-04 12:06:05.896244</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2022-11-04 10:30:26.187611</t>
+          <t>2022-11-04 12:06:06.306168</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2022-11-04 10:30:26.588365</t>
+          <t>2022-11-04 12:06:06.677522</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2022-11-04 12:06:07.068514</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2022-11-04 12:06:07.468797</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2022-11-04 12:06:07.897738</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2022-11-04 10:30:35.995643</t>
+          <t>2022-11-04 12:06:10.243311</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2022-11-04 10:30:36.427368</t>
+          <t>2022-11-04 12:06:10.652376</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2022-11-04 10:30:37.461224</t>
+          <t>2022-11-04 12:06:11.059921</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-11-04 10:30:37.863499</t>
+          <t>2022-11-04 12:06:11.438494</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2022-11-04 12:06:33.601260</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2022-11-04 10:30:41.496974</t>
+          <t>2022-11-04 12:06:14.834890</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>2022-11-04 10:35:22.899358</t>
+          <t>2022-11-04 12:06:15.241278</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>2022-11-04 10:30:45.124839</t>
+          <t>2022-11-04 12:06:15.740009</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>2022-11-04 10:30:46.894710</t>
+          <t>2022-11-04 12:06:16.189212</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2022-11-04 12:06:38.847404</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>2022-11-04 10:30:50.475643</t>
+          <t>2022-11-04 12:06:19.581038</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>2022-11-04 10:30:50.911784</t>
+          <t>2022-11-04 12:06:19.979622</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2022-11-04 12:06:54.021556</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2022-11-04 10:30:54.453530</t>
+          <t>2022-11-04 12:06:23.428231</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2022-11-04 10:30:55.011330</t>
+          <t>2022-11-04 12:06:23.876913</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2022-11-04 12:07:40.453004</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>2022-11-04 10:30:58.726136</t>
+          <t>2022-11-04 12:06:27.295224</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2022-11-04 12:07:49.701282</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2022-11-04 12:06:30.720607</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>2022-11-04 10:31:05.235170</t>
+          <t>2022-11-04 12:06:31.385082</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>2022-11-04 10:31:05.917040</t>
+          <t>2022-11-04 12:06:31.806239</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>2022-11-04 10:31:07.509072</t>
+          <t>2022-11-04 12:06:32.402374</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>2022-11-04 10:31:08.502888</t>
+          <t>2022-11-04 12:06:32.941087</t>
         </is>
       </c>
     </row>
@@ -945,167 +945,167 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0:00:00.007216</t>
+          <t>0:00:00.001453</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0:00:00.109694</t>
+          <t>0:00:00.080351</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0:00:00.032330</t>
+          <t>0:00:00.011870</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0:00:00.018489</t>
+          <t>0:00:00.017909</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0:00:00.245166</t>
+          <t>0:00:00.050582</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0:00:00.044987</t>
+          <t>0:00:00.018298</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0:00:00.039604</t>
+          <t>0:00:00.024067</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0:00:00.035750</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0:00:00.065340</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0:00:01.937757</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0:00:00.037289</t>
+          <t>0:00:00.033619</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0:00:00.676036</t>
+          <t>0:00:00.045378</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0:00:00.051589</t>
+          <t>0:00:00.017043</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0:00:00.244984</t>
+          <t>0:00:00.030225</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0:00:04.807416</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0:00:00.174168</t>
+          <t>0:00:00.043650</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0:00:36.014944</t>
+          <t>0:00:00.134548</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0:00:01.382304</t>
+          <t>0:00:00.086023</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0:00:00.190384</t>
+          <t>0:00:00.026537</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0:00:14.782787</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0:00:00.075110</t>
+          <t>0:00:00.035549</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>0:00:00.165419</t>
+          <t>0:00:00.084239</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0:00:45.840085</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>0:00:00.198863</t>
+          <t>0:00:00.075697</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>0:00:00.331017</t>
+          <t>0:00:00.038877</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0:00:08.818506</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>0:00:00.139256</t>
+          <t>0:00:00.057974</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0:00:06.230849</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0:00:00.288185</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>0:00:00.317674</t>
+          <t>0:00:00.058900</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>0:00:01.197170</t>
+          <t>0:00:00.228712</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>0:00:00.621496</t>
+          <t>0:00:00.173827</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>0:00:01.930831</t>
+          <t>0:00:00.246565</t>
         </is>
       </c>
     </row>
@@ -1117,62 +1117,62 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>108</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>131</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>49</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>75</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>54</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>206</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1469</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>52</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>143</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -1182,37 +1182,37 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>107</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1807</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>107</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>299</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>184</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>96</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>861</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -1222,62 +1222,62 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>161</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2787</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>179</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>70</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1598</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>76</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>637</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>138</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>137</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>167</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>301</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>77</t>
         </is>
       </c>
     </row>
@@ -1289,167 +1289,339 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2309</t>
+          <t>1793</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>861</t>
+          <t>325</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>369</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3493</t>
+          <t>877</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>813</t>
+          <t>329</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>849</t>
+          <t>517</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>681</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1817</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>17537</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>781</t>
+          <t>697</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>7641</t>
+          <t>865</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>953</t>
+          <t>321</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>3605</t>
+          <t>565</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>31793</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
+          <t>1009</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>2053</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>1485</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>473</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>69833</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>629</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>1445</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>122385</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>1545</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>721</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>46785</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>993</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>39745</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>3789</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>1005</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>3241</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>2853</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
           <t>3353</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>75097</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>11465</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>2789</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>1241</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>2593</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>3373</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>4313</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>2093</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>4289</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>10557</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>7377</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>13933</t>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>PROCESS MEMORY</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>49152</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>933888</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>196608</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>278528</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>720896</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>262144</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>327680</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>589824</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>1048576</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>13991936</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>475136</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>720896</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>262144</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>475136</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>17252352</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>671744</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>1835008</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>1130496</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>360448</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>9863168</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>458752</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>1114112</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>29982720</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>917504</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>540672</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>14270464</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>704512</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>7913472</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>2392064</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>753664</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>2277376</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>1916928</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>2015232</t>
         </is>
       </c>
     </row>

--- a/dfs_benchmark.xlsx
+++ b/dfs_benchmark.xlsx
@@ -773,167 +773,167 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:06:04.348794</t>
+          <t>2022-11-05 21:11:40.544558</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:06:04.709060</t>
+          <t>2022-11-05 21:11:40.924837</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:06:05.151886</t>
+          <t>2022-11-05 21:11:41.392436</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:06:05.521276</t>
+          <t>2022-11-05 21:11:41.786184</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:06:05.896244</t>
+          <t>2022-11-05 21:11:42.183822</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:06:06.306168</t>
+          <t>2022-11-05 21:11:42.626337</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:06:06.677522</t>
+          <t>2022-11-05 21:11:43.033633</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:06:07.068514</t>
+          <t>2022-11-05 21:11:43.443970</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:06:07.468797</t>
+          <t>2022-11-05 21:11:43.869564</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:06:07.897738</t>
+          <t>2022-11-05 21:11:44.325969</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:06:10.243311</t>
+          <t>2022-11-05 21:11:46.700816</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:06:10.652376</t>
+          <t>2022-11-05 21:11:47.112960</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:06:11.059921</t>
+          <t>2022-11-05 21:11:47.543639</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:06:11.438494</t>
+          <t>2022-11-05 21:11:47.940160</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:06:33.601260</t>
+          <t>2022-11-05 21:12:10.665267</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:06:14.834890</t>
+          <t>2022-11-05 21:11:51.358669</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:06:15.241278</t>
+          <t>2022-11-05 21:11:51.790037</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:06:15.740009</t>
+          <t>2022-11-05 21:11:52.310356</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:06:16.189212</t>
+          <t>2022-11-05 21:11:52.785084</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:06:38.847404</t>
+          <t>2022-11-05 21:12:16.424972</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:06:19.581038</t>
+          <t>2022-11-05 21:11:56.193091</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:06:19.979622</t>
+          <t>2022-11-05 21:11:56.614948</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:06:54.021556</t>
+          <t>2022-11-05 21:12:32.409979</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:06:23.428231</t>
+          <t>2022-11-05 21:12:00.101673</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:06:23.876913</t>
+          <t>2022-11-05 21:12:00.563579</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:07:40.453004</t>
+          <t>2022-11-05 21:13:20.876955</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:06:27.295224</t>
+          <t>2022-11-05 21:12:03.991088</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:07:49.701282</t>
+          <t>2022-11-05 21:13:30.144697</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:06:30.720607</t>
+          <t>2022-11-05 21:12:07.447637</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:06:31.385082</t>
+          <t>2022-11-05 21:12:08.237438</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:06:31.806239</t>
+          <t>2022-11-05 21:12:08.686191</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:06:32.402374</t>
+          <t>2022-11-05 21:12:09.319335</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:06:32.941087</t>
+          <t>2022-11-05 21:12:09.885437</t>
         </is>
       </c>
     </row>
@@ -945,167 +945,167 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0:00:00.001453</t>
+          <t>0:00:00.001450</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0:00:00.080351</t>
+          <t>0:00:00.082047</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0:00:00.011870</t>
+          <t>0:00:00.012213</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0:00:00.017909</t>
+          <t>0:00:00.019074</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0:00:00.050582</t>
+          <t>0:00:00.053049</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0:00:00.018298</t>
+          <t>0:00:00.018869</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0:00:00.024067</t>
+          <t>0:00:00.025548</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0:00:00.035750</t>
+          <t>0:00:00.037262</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0:00:00.065340</t>
+          <t>0:00:00.067464</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0:00:01.937757</t>
+          <t>0:00:01.969807</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0:00:00.033619</t>
+          <t>0:00:00.035379</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0:00:00.045378</t>
+          <t>0:00:00.047386</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0:00:00.017043</t>
+          <t>0:00:00.017487</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0:00:00.030225</t>
+          <t>0:00:00.031184</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0:00:04.807416</t>
+          <t>0:00:05.269171</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0:00:00.043650</t>
+          <t>0:00:00.045302</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0:00:00.134548</t>
+          <t>0:00:00.137727</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0:00:00.086023</t>
+          <t>0:00:00.088808</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0:00:00.026537</t>
+          <t>0:00:00.027270</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0:00:14.782787</t>
+          <t>0:00:15.559185</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0:00:00.035549</t>
+          <t>0:00:00.036910</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>0:00:00.084239</t>
+          <t>0:00:00.086457</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>0:00:45.840085</t>
+          <t>0:00:47.947746</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>0:00:00.075697</t>
+          <t>0:00:00.081462</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>0:00:00.038877</t>
+          <t>0:00:00.040471</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0:00:08.818506</t>
+          <t>0:00:08.855209</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>0:00:00.057974</t>
+          <t>0:00:00.066855</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>0:00:06.230849</t>
+          <t>0:00:06.320743</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>0:00:00.288185</t>
+          <t>0:00:00.301846</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>0:00:00.058900</t>
+          <t>0:00:00.065331</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>0:00:00.228712</t>
+          <t>0:00:00.236224</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>0:00:00.173827</t>
+          <t>0:00:00.181199</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>0:00:00.246565</t>
+          <t>0:00:00.333389</t>
         </is>
       </c>
     </row>
@@ -1481,147 +1481,147 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>704512</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>262144</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>360448</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>606208</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>1048576</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>13860864</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>475136</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
           <t>720896</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>262144</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>327680</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>589824</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>1048576</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>13991936</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>475136</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>245760</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>458752</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>17203200</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>671744</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>1818624</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>1114112</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>344064</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>9666560</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>442368</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>1097728</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>30113792</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>917504</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>524288</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>14041088</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>770048</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>7847936</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>2408448</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
         <is>
           <t>720896</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>262144</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>475136</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>17252352</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>671744</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>1835008</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>1130496</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>360448</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>9863168</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>458752</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>1114112</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>29982720</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>917504</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>540672</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>14270464</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>704512</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>7913472</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>2392064</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>753664</t>
-        </is>
-      </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>2277376</t>
+          <t>2260992</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>1916928</t>
+          <t>1966080</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>2015232</t>
+          <t>2031616</t>
         </is>
       </c>
     </row>
